--- a/IMMD/simulation/VerificationOfAnalyticalModel/From Scratch/Verification SA/Simulink_SA_Harmonics.xlsx
+++ b/IMMD/simulation/VerificationOfAnalyticalModel/From Scratch/Verification SA/Simulink_SA_Harmonics.xlsx
@@ -425,7 +425,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
